--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3947990000000001</v>
+        <v>0.8006436666666668</v>
       </c>
       <c r="H2">
-        <v>1.184397</v>
+        <v>2.401931</v>
       </c>
       <c r="I2">
-        <v>0.006038660310945298</v>
+        <v>0.01249641478642205</v>
       </c>
       <c r="J2">
-        <v>0.006038660310945297</v>
+        <v>0.01249641478642205</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N2">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O2">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P2">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q2">
-        <v>4.127645522144334</v>
+        <v>34.9954583929829</v>
       </c>
       <c r="R2">
-        <v>37.148809699299</v>
+        <v>314.959125536846</v>
       </c>
       <c r="S2">
-        <v>4.953065454413511E-05</v>
+        <v>0.0003106149206752371</v>
       </c>
       <c r="T2">
-        <v>4.95306545441351E-05</v>
+        <v>0.0003106149206752371</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3947990000000001</v>
+        <v>0.8006436666666668</v>
       </c>
       <c r="H3">
-        <v>1.184397</v>
+        <v>2.401931</v>
       </c>
       <c r="I3">
-        <v>0.006038660310945298</v>
+        <v>0.01249641478642205</v>
       </c>
       <c r="J3">
-        <v>0.006038660310945297</v>
+        <v>0.01249641478642205</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q3">
-        <v>66.10030208706569</v>
+        <v>134.0499551183326</v>
       </c>
       <c r="R3">
-        <v>594.9027187835911</v>
+        <v>1206.449596064993</v>
       </c>
       <c r="S3">
-        <v>0.0007931861421657563</v>
+        <v>0.001189809137746542</v>
       </c>
       <c r="T3">
-        <v>0.0007931861421657561</v>
+        <v>0.001189809137746542</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3947990000000001</v>
+        <v>0.8006436666666668</v>
       </c>
       <c r="H4">
-        <v>1.184397</v>
+        <v>2.401931</v>
       </c>
       <c r="I4">
-        <v>0.006038660310945298</v>
+        <v>0.01249641478642205</v>
       </c>
       <c r="J4">
-        <v>0.006038660310945297</v>
+        <v>0.01249641478642205</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N4">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q4">
-        <v>89.81506617872201</v>
+        <v>365.4033883208847</v>
       </c>
       <c r="R4">
-        <v>808.335595608498</v>
+        <v>3288.630494887962</v>
       </c>
       <c r="S4">
-        <v>0.001077757038944042</v>
+        <v>0.003243270689676488</v>
       </c>
       <c r="T4">
-        <v>0.001077757038944042</v>
+        <v>0.003243270689676489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3947990000000001</v>
+        <v>0.8006436666666668</v>
       </c>
       <c r="H5">
-        <v>1.184397</v>
+        <v>2.401931</v>
       </c>
       <c r="I5">
-        <v>0.006038660310945298</v>
+        <v>0.01249641478642205</v>
       </c>
       <c r="J5">
-        <v>0.006038660310945297</v>
+        <v>0.01249641478642205</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N5">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q5">
-        <v>21.91540027012701</v>
+        <v>90.99191785725147</v>
       </c>
       <c r="R5">
-        <v>197.238602431143</v>
+        <v>818.9272607152632</v>
       </c>
       <c r="S5">
-        <v>0.0002629790068339471</v>
+        <v>0.0008076318655390178</v>
       </c>
       <c r="T5">
-        <v>0.000262979006833947</v>
+        <v>0.0008076318655390179</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3947990000000001</v>
+        <v>0.8006436666666668</v>
       </c>
       <c r="H6">
-        <v>1.184397</v>
+        <v>2.401931</v>
       </c>
       <c r="I6">
-        <v>0.006038660310945298</v>
+        <v>0.01249641478642205</v>
       </c>
       <c r="J6">
-        <v>0.006038660310945297</v>
+        <v>0.01249641478642205</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N6">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q6">
-        <v>262.8513863150604</v>
+        <v>600.6241236554417</v>
       </c>
       <c r="R6">
-        <v>2365.662476835543</v>
+        <v>5405.617112898975</v>
       </c>
       <c r="S6">
-        <v>0.003154147114177264</v>
+        <v>0.005331057888422385</v>
       </c>
       <c r="T6">
-        <v>0.003154147114177264</v>
+        <v>0.005331057888422386</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3947990000000001</v>
+        <v>0.8006436666666668</v>
       </c>
       <c r="H7">
-        <v>1.184397</v>
+        <v>2.401931</v>
       </c>
       <c r="I7">
-        <v>0.006038660310945298</v>
+        <v>0.01249641478642205</v>
       </c>
       <c r="J7">
-        <v>0.006038660310945297</v>
+        <v>0.01249641478642205</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N7">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q7">
-        <v>58.42298388200967</v>
+        <v>181.8448693276857</v>
       </c>
       <c r="R7">
-        <v>525.806854938087</v>
+        <v>1636.603823949171</v>
       </c>
       <c r="S7">
-        <v>0.0007010603542801531</v>
+        <v>0.001614030284362378</v>
       </c>
       <c r="T7">
-        <v>0.0007010603542801529</v>
+        <v>0.001614030284362378</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>187.245636</v>
       </c>
       <c r="I8">
-        <v>0.9546738049073999</v>
+        <v>0.9741741683684503</v>
       </c>
       <c r="J8">
-        <v>0.9546738049073998</v>
+        <v>0.9741741683684504</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N8">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O8">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P8">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q8">
-        <v>652.5545159068013</v>
+        <v>2728.116196470931</v>
       </c>
       <c r="R8">
-        <v>5872.990643161212</v>
+        <v>24553.04576823837</v>
       </c>
       <c r="S8">
-        <v>0.00783048159663767</v>
+        <v>0.02421438766264489</v>
       </c>
       <c r="T8">
-        <v>0.007830481596637668</v>
+        <v>0.02421438766264489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>187.245636</v>
       </c>
       <c r="I9">
-        <v>0.9546738049073999</v>
+        <v>0.9741741683684503</v>
       </c>
       <c r="J9">
-        <v>0.9546738049073998</v>
+        <v>0.9741741683684504</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q9">
         <v>10450.03753309468</v>
@@ -1013,10 +1013,10 @@
         <v>94050.3377978521</v>
       </c>
       <c r="S9">
-        <v>0.1253976864651071</v>
+        <v>0.09275310935907936</v>
       </c>
       <c r="T9">
-        <v>0.1253976864651071</v>
+        <v>0.09275310935907938</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>187.245636</v>
       </c>
       <c r="I10">
-        <v>0.9546738049073999</v>
+        <v>0.9741741683684503</v>
       </c>
       <c r="J10">
-        <v>0.9546738049073998</v>
+        <v>0.9741741683684504</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N10">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q10">
-        <v>14199.19097145373</v>
+        <v>28485.49348116121</v>
       </c>
       <c r="R10">
-        <v>127792.7187430836</v>
+        <v>256369.4413304509</v>
       </c>
       <c r="S10">
-        <v>0.1703865361112481</v>
+        <v>0.2528333590801037</v>
       </c>
       <c r="T10">
-        <v>0.170386536111248</v>
+        <v>0.2528333590801037</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>187.245636</v>
       </c>
       <c r="I11">
-        <v>0.9546738049073999</v>
+        <v>0.9741741683684503</v>
       </c>
       <c r="J11">
-        <v>0.9546738049073998</v>
+        <v>0.9741741683684504</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N11">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q11">
-        <v>3464.685457472876</v>
+        <v>7093.392578738025</v>
       </c>
       <c r="R11">
-        <v>31182.16911725588</v>
+        <v>63840.53320864223</v>
       </c>
       <c r="S11">
-        <v>0.04157530911448674</v>
+        <v>0.06295998607650255</v>
       </c>
       <c r="T11">
-        <v>0.04157530911448674</v>
+        <v>0.06295998607650255</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>187.245636</v>
       </c>
       <c r="I12">
-        <v>0.9546738049073999</v>
+        <v>0.9741741683684503</v>
       </c>
       <c r="J12">
-        <v>0.9546738049073998</v>
+        <v>0.9741741683684504</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N12">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q12">
-        <v>41555.13312178701</v>
+        <v>46822.42996605889</v>
       </c>
       <c r="R12">
-        <v>373996.1980960831</v>
+        <v>421401.86969453</v>
       </c>
       <c r="S12">
-        <v>0.4986506065379144</v>
+        <v>0.4155895089702687</v>
       </c>
       <c r="T12">
-        <v>0.4986506065379144</v>
+        <v>0.4155895089702687</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>187.245636</v>
       </c>
       <c r="I13">
-        <v>0.9546738049073999</v>
+        <v>0.9741741683684503</v>
       </c>
       <c r="J13">
-        <v>0.9546738049073998</v>
+        <v>0.9741741683684504</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N13">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q13">
-        <v>9236.30233275215</v>
+        <v>14175.95185315456</v>
       </c>
       <c r="R13">
-        <v>83126.72099476935</v>
+        <v>127583.5666783911</v>
       </c>
       <c r="S13">
-        <v>0.1108331850820059</v>
+        <v>0.1258238172198511</v>
       </c>
       <c r="T13">
-        <v>0.1108331850820059</v>
+        <v>0.1258238172198512</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3317313333333333</v>
+        <v>0.02829766666666667</v>
       </c>
       <c r="H14">
-        <v>0.995194</v>
+        <v>0.084893</v>
       </c>
       <c r="I14">
-        <v>0.005074006865511221</v>
+        <v>0.0004416688657849567</v>
       </c>
       <c r="J14">
-        <v>0.005074006865511221</v>
+        <v>0.0004416688657849567</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N14">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O14">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P14">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q14">
-        <v>3.468269556377555</v>
+        <v>1.236867107904222</v>
       </c>
       <c r="R14">
-        <v>31.214426007398</v>
+        <v>11.131803971138</v>
       </c>
       <c r="S14">
-        <v>4.161831735338403E-05</v>
+        <v>1.097826393051378E-05</v>
       </c>
       <c r="T14">
-        <v>4.161831735338403E-05</v>
+        <v>1.097826393051378E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3317313333333333</v>
+        <v>0.02829766666666667</v>
       </c>
       <c r="H15">
-        <v>0.995194</v>
+        <v>0.084893</v>
       </c>
       <c r="I15">
-        <v>0.005074006865511221</v>
+        <v>0.0004416688657849567</v>
       </c>
       <c r="J15">
-        <v>0.005074006865511221</v>
+        <v>0.0004416688657849567</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q15">
-        <v>55.54102554737578</v>
+        <v>4.737814216919889</v>
       </c>
       <c r="R15">
-        <v>499.869229926382</v>
+        <v>42.640327952279</v>
       </c>
       <c r="S15">
-        <v>0.0006664776165141482</v>
+        <v>4.205219347713036E-05</v>
       </c>
       <c r="T15">
-        <v>0.0006664776165141482</v>
+        <v>4.205219347713036E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3317313333333333</v>
+        <v>0.02829766666666667</v>
       </c>
       <c r="H16">
-        <v>0.995194</v>
+        <v>0.084893</v>
       </c>
       <c r="I16">
-        <v>0.005074006865511221</v>
+        <v>0.0004416688657849567</v>
       </c>
       <c r="J16">
-        <v>0.005074006865511221</v>
+        <v>0.0004416688657849567</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N16">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q16">
-        <v>75.46744459051065</v>
+        <v>12.91468815912067</v>
       </c>
       <c r="R16">
-        <v>679.2070013145959</v>
+        <v>116.232193432086</v>
       </c>
       <c r="S16">
-        <v>0.0009055893746901392</v>
+        <v>0.0001146290125148083</v>
       </c>
       <c r="T16">
-        <v>0.0009055893746901392</v>
+        <v>0.0001146290125148083</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3317313333333333</v>
+        <v>0.02829766666666667</v>
       </c>
       <c r="H17">
-        <v>0.995194</v>
+        <v>0.084893</v>
       </c>
       <c r="I17">
-        <v>0.005074006865511221</v>
+        <v>0.0004416688657849567</v>
       </c>
       <c r="J17">
-        <v>0.005074006865511221</v>
+        <v>0.0004416688657849567</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N17">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q17">
-        <v>18.41449687598734</v>
+        <v>3.215986172232111</v>
       </c>
       <c r="R17">
-        <v>165.730471883886</v>
+        <v>28.943875550089</v>
       </c>
       <c r="S17">
-        <v>0.0002209690920587464</v>
+        <v>2.8544655096755E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002209690920587464</v>
+        <v>2.8544655096755E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.3317313333333333</v>
+        <v>0.02829766666666667</v>
       </c>
       <c r="H18">
-        <v>0.995194</v>
+        <v>0.084893</v>
       </c>
       <c r="I18">
-        <v>0.005074006865511221</v>
+        <v>0.0004416688657849567</v>
       </c>
       <c r="J18">
-        <v>0.005074006865511221</v>
+        <v>0.0004416688657849567</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N18">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q18">
-        <v>220.8618584414096</v>
+        <v>21.22824666049166</v>
       </c>
       <c r="R18">
-        <v>1987.756725972686</v>
+        <v>191.054219944425</v>
       </c>
       <c r="S18">
-        <v>0.002650283885510118</v>
+        <v>0.0001884190250768409</v>
       </c>
       <c r="T18">
-        <v>0.002650283885510118</v>
+        <v>0.0001884190250768409</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.3317313333333333</v>
+        <v>0.02829766666666667</v>
       </c>
       <c r="H19">
-        <v>0.995194</v>
+        <v>0.084893</v>
       </c>
       <c r="I19">
-        <v>0.005074006865511221</v>
+        <v>0.0004416688657849567</v>
       </c>
       <c r="J19">
-        <v>0.005074006865511221</v>
+        <v>0.0004416688657849567</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N19">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q19">
-        <v>49.09013027006377</v>
+        <v>6.427060765623667</v>
       </c>
       <c r="R19">
-        <v>441.8111724305739</v>
+        <v>57.843546890613</v>
       </c>
       <c r="S19">
-        <v>0.0005890685793846848</v>
+        <v>5.704571568890836E-05</v>
       </c>
       <c r="T19">
-        <v>0.0005890685793846848</v>
+        <v>5.704571568890837E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.571181333333333</v>
+        <v>0.3530496666666667</v>
       </c>
       <c r="H20">
-        <v>4.713544</v>
+        <v>1.059149</v>
       </c>
       <c r="I20">
-        <v>0.02403205266198271</v>
+        <v>0.005510385279437304</v>
       </c>
       <c r="J20">
-        <v>0.02403205266198271</v>
+        <v>0.005510385279437304</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N20">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O20">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P20">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q20">
-        <v>16.42678830242756</v>
+        <v>15.43150272071489</v>
       </c>
       <c r="R20">
-        <v>147.841094721848</v>
+        <v>138.883524486434</v>
       </c>
       <c r="S20">
-        <v>0.0001971171149053744</v>
+        <v>0.0001369679156554692</v>
       </c>
       <c r="T20">
-        <v>0.0001971171149053743</v>
+        <v>0.0001369679156554691</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.571181333333333</v>
+        <v>0.3530496666666667</v>
       </c>
       <c r="H21">
-        <v>4.713544</v>
+        <v>1.059149</v>
       </c>
       <c r="I21">
-        <v>0.02403205266198271</v>
+        <v>0.005510385279437304</v>
       </c>
       <c r="J21">
-        <v>0.02403205266198271</v>
+        <v>0.005510385279437304</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q21">
-        <v>263.0593308668258</v>
+        <v>59.11030579713856</v>
       </c>
       <c r="R21">
-        <v>2367.533977801432</v>
+        <v>531.992752174247</v>
       </c>
       <c r="S21">
-        <v>0.003156642393799162</v>
+        <v>0.0005246550206625887</v>
       </c>
       <c r="T21">
-        <v>0.003156642393799162</v>
+        <v>0.0005246550206625887</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.571181333333333</v>
+        <v>0.3530496666666667</v>
       </c>
       <c r="H22">
-        <v>4.713544</v>
+        <v>1.059149</v>
       </c>
       <c r="I22">
-        <v>0.02403205266198271</v>
+        <v>0.005510385279437304</v>
       </c>
       <c r="J22">
-        <v>0.02403205266198271</v>
+        <v>0.005510385279437304</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N22">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q22">
-        <v>357.4369626876106</v>
+        <v>161.1272902246887</v>
       </c>
       <c r="R22">
-        <v>3216.932664188495</v>
+        <v>1450.145612022198</v>
       </c>
       <c r="S22">
-        <v>0.004289149013694272</v>
+        <v>0.001430143874949015</v>
       </c>
       <c r="T22">
-        <v>0.004289149013694271</v>
+        <v>0.001430143874949015</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.571181333333333</v>
+        <v>0.3530496666666667</v>
       </c>
       <c r="H23">
-        <v>4.713544</v>
+        <v>1.059149</v>
       </c>
       <c r="I23">
-        <v>0.02403205266198271</v>
+        <v>0.005510385279437304</v>
       </c>
       <c r="J23">
-        <v>0.02403205266198271</v>
+        <v>0.005510385279437304</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N23">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q23">
-        <v>87.21670474583735</v>
+        <v>40.12355009639744</v>
       </c>
       <c r="R23">
-        <v>784.950342712536</v>
+        <v>361.111950867577</v>
       </c>
       <c r="S23">
-        <v>0.00104657738899044</v>
+        <v>0.0003561311639484169</v>
       </c>
       <c r="T23">
-        <v>0.00104657738899044</v>
+        <v>0.0003561311639484169</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.571181333333333</v>
+        <v>0.3530496666666667</v>
       </c>
       <c r="H24">
-        <v>4.713544</v>
+        <v>1.059149</v>
       </c>
       <c r="I24">
-        <v>0.02403205266198271</v>
+        <v>0.005510385279437304</v>
       </c>
       <c r="J24">
-        <v>0.02403205266198271</v>
+        <v>0.005510385279437304</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N24">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q24">
-        <v>1046.06949769126</v>
+        <v>264.8495897448917</v>
       </c>
       <c r="R24">
-        <v>9414.625479221335</v>
+        <v>2383.646307704025</v>
       </c>
       <c r="S24">
-        <v>0.01255255729721331</v>
+        <v>0.002350768873654023</v>
       </c>
       <c r="T24">
-        <v>0.01255255729721331</v>
+        <v>0.002350768873654023</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.571181333333333</v>
+        <v>0.3530496666666667</v>
       </c>
       <c r="H25">
-        <v>4.713544</v>
+        <v>1.059149</v>
       </c>
       <c r="I25">
-        <v>0.02403205266198271</v>
+        <v>0.005510385279437304</v>
       </c>
       <c r="J25">
-        <v>0.02403205266198271</v>
+        <v>0.005510385279437304</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N25">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q25">
-        <v>232.5059124087138</v>
+        <v>80.18582195056766</v>
       </c>
       <c r="R25">
-        <v>2092.553211678424</v>
+        <v>721.672397555109</v>
       </c>
       <c r="S25">
-        <v>0.00279000945338015</v>
+        <v>0.0007117184305677924</v>
       </c>
       <c r="T25">
-        <v>0.002790009453380149</v>
+        <v>0.0007117184305677924</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.07527233333333334</v>
+        <v>0.09580633333333333</v>
       </c>
       <c r="H26">
-        <v>0.225817</v>
+        <v>0.287419</v>
       </c>
       <c r="I26">
-        <v>0.0011513303017795</v>
+        <v>0.001495341473796973</v>
       </c>
       <c r="J26">
-        <v>0.001151330301779499</v>
+        <v>0.001495341473796974</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N26">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O26">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P26">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q26">
-        <v>0.786976435159889</v>
+        <v>4.187613905583778</v>
       </c>
       <c r="R26">
-        <v>7.082787916439001</v>
+        <v>37.68852515025399</v>
       </c>
       <c r="S26">
-        <v>9.443509074400692E-06</v>
+        <v>3.716869047676888E-05</v>
       </c>
       <c r="T26">
-        <v>9.443509074400691E-06</v>
+        <v>3.716869047676888E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.07527233333333334</v>
+        <v>0.09580633333333333</v>
       </c>
       <c r="H27">
-        <v>0.225817</v>
+        <v>0.287419</v>
       </c>
       <c r="I27">
-        <v>0.0011513303017795</v>
+        <v>0.001495341473796973</v>
       </c>
       <c r="J27">
-        <v>0.001151330301779499</v>
+        <v>0.001495341473796974</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q27">
-        <v>12.60267622798345</v>
+        <v>16.04063732478411</v>
       </c>
       <c r="R27">
-        <v>113.424086051851</v>
+        <v>144.365735923057</v>
       </c>
       <c r="S27">
-        <v>0.0001512287814520339</v>
+        <v>0.0001423745114085181</v>
       </c>
       <c r="T27">
-        <v>0.0001512287814520339</v>
+        <v>0.0001423745114085181</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.07527233333333334</v>
+        <v>0.09580633333333333</v>
       </c>
       <c r="H28">
-        <v>0.225817</v>
+        <v>0.287419</v>
       </c>
       <c r="I28">
-        <v>0.0011513303017795</v>
+        <v>0.001495341473796973</v>
       </c>
       <c r="J28">
-        <v>0.001151330301779499</v>
+        <v>0.001495341473796974</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N28">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q28">
-        <v>17.12413050630867</v>
+        <v>43.72476830841534</v>
       </c>
       <c r="R28">
-        <v>154.117174556778</v>
+        <v>393.522914775738</v>
       </c>
       <c r="S28">
-        <v>0.0002054850369118013</v>
+        <v>0.0003880950861436596</v>
       </c>
       <c r="T28">
-        <v>0.0002054850369118012</v>
+        <v>0.0003880950861436596</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.07527233333333334</v>
+        <v>0.09580633333333333</v>
       </c>
       <c r="H29">
-        <v>0.225817</v>
+        <v>0.287419</v>
       </c>
       <c r="I29">
-        <v>0.0011513303017795</v>
+        <v>0.001495341473796973</v>
       </c>
       <c r="J29">
-        <v>0.001151330301779499</v>
+        <v>0.001495341473796974</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N29">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q29">
-        <v>4.178387772680335</v>
+        <v>10.88824201803189</v>
       </c>
       <c r="R29">
-        <v>37.605489954123</v>
+        <v>97.994178162287</v>
       </c>
       <c r="S29">
-        <v>5.013954812974148E-05</v>
+        <v>9.664255266340244E-05</v>
       </c>
       <c r="T29">
-        <v>5.013954812974147E-05</v>
+        <v>9.664255266340246E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.07527233333333334</v>
+        <v>0.09580633333333333</v>
       </c>
       <c r="H30">
-        <v>0.225817</v>
+        <v>0.287419</v>
       </c>
       <c r="I30">
-        <v>0.0011513303017795</v>
+        <v>0.001495341473796973</v>
       </c>
       <c r="J30">
-        <v>0.001151330301779499</v>
+        <v>0.001495341473796974</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N30">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q30">
-        <v>50.1152160158359</v>
+        <v>71.87166700330832</v>
       </c>
       <c r="R30">
-        <v>451.0369441425231</v>
+        <v>646.8450030297749</v>
       </c>
       <c r="S30">
-        <v>0.0006013693372088642</v>
+        <v>0.0006379231240333188</v>
       </c>
       <c r="T30">
-        <v>0.0006013693372088641</v>
+        <v>0.0006379231240333188</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.07527233333333334</v>
+        <v>0.09580633333333333</v>
       </c>
       <c r="H31">
-        <v>0.225817</v>
+        <v>0.287419</v>
       </c>
       <c r="I31">
-        <v>0.0011513303017795</v>
+        <v>0.001495341473796973</v>
       </c>
       <c r="J31">
-        <v>0.001151330301779499</v>
+        <v>0.001495341473796974</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N31">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q31">
-        <v>11.13891959476745</v>
+        <v>21.75985509046433</v>
       </c>
       <c r="R31">
-        <v>100.250276352907</v>
+        <v>195.838695814179</v>
       </c>
       <c r="S31">
-        <v>0.0001336640890026582</v>
+        <v>0.0001931375090713056</v>
       </c>
       <c r="T31">
-        <v>0.0001336640890026581</v>
+        <v>0.0001931375090713057</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.590378</v>
+        <v>0.3768603333333333</v>
       </c>
       <c r="H32">
-        <v>1.771134</v>
+        <v>1.130581</v>
       </c>
       <c r="I32">
-        <v>0.009030144952381495</v>
+        <v>0.00588202122610842</v>
       </c>
       <c r="J32">
-        <v>0.009030144952381495</v>
+        <v>0.00588202122610842</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N32">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O32">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P32">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q32">
-        <v>6.172434854375333</v>
+        <v>16.47224684863845</v>
       </c>
       <c r="R32">
-        <v>55.551913689378</v>
+        <v>148.250221637746</v>
       </c>
       <c r="S32">
-        <v>7.406758570426315E-05</v>
+        <v>0.0001462054187368123</v>
       </c>
       <c r="T32">
-        <v>7.406758570426315E-05</v>
+        <v>0.0001462054187368122</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.590378</v>
+        <v>0.3768603333333333</v>
       </c>
       <c r="H33">
-        <v>1.771134</v>
+        <v>1.130581</v>
       </c>
       <c r="I33">
-        <v>0.009030144952381495</v>
+        <v>0.00588202122610842</v>
       </c>
       <c r="J33">
-        <v>0.009030144952381495</v>
+        <v>0.00588202122610842</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>502.283203</v>
       </c>
       <c r="O33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q33">
-        <v>98.84565094024467</v>
+        <v>63.09687177010478</v>
       </c>
       <c r="R33">
-        <v>889.610858462202</v>
+        <v>567.871845930943</v>
       </c>
       <c r="S33">
-        <v>0.001186121667581566</v>
+        <v>0.000560039237081591</v>
       </c>
       <c r="T33">
-        <v>0.001186121667581566</v>
+        <v>0.000560039237081591</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.590378</v>
+        <v>0.3768603333333333</v>
       </c>
       <c r="H34">
-        <v>1.771134</v>
+        <v>1.130581</v>
       </c>
       <c r="I34">
-        <v>0.009030144952381495</v>
+        <v>0.00588202122610842</v>
       </c>
       <c r="J34">
-        <v>0.009030144952381495</v>
+        <v>0.00588202122610842</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N34">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q34">
-        <v>134.308443386284</v>
+        <v>171.9941697622513</v>
       </c>
       <c r="R34">
-        <v>1208.775990476556</v>
+        <v>1547.947527860262</v>
       </c>
       <c r="S34">
-        <v>0.001611665797374627</v>
+        <v>0.001526596817146343</v>
       </c>
       <c r="T34">
-        <v>0.001611665797374627</v>
+        <v>0.001526596817146343</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.590378</v>
+        <v>0.3768603333333333</v>
       </c>
       <c r="H35">
-        <v>1.771134</v>
+        <v>1.130581</v>
       </c>
       <c r="I35">
-        <v>0.009030144952381495</v>
+        <v>0.00588202122610842</v>
       </c>
       <c r="J35">
-        <v>0.009030144952381495</v>
+        <v>0.00588202122610842</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N35">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q35">
-        <v>32.772043953194</v>
+        <v>42.82959563907922</v>
       </c>
       <c r="R35">
-        <v>294.948395578746</v>
+        <v>385.466360751713</v>
       </c>
       <c r="S35">
-        <v>0.000393255859555399</v>
+        <v>0.0003801496554950863</v>
       </c>
       <c r="T35">
-        <v>0.0003932558595553989</v>
+        <v>0.0003801496554950863</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.590378</v>
+        <v>0.3768603333333333</v>
       </c>
       <c r="H36">
-        <v>1.771134</v>
+        <v>1.130581</v>
       </c>
       <c r="I36">
-        <v>0.009030144952381495</v>
+        <v>0.00588202122610842</v>
       </c>
       <c r="J36">
-        <v>0.009030144952381495</v>
+        <v>0.00588202122610842</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N36">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q36">
-        <v>393.0650172617273</v>
+        <v>282.7117941133583</v>
       </c>
       <c r="R36">
-        <v>3537.585155355546</v>
+        <v>2544.406147020225</v>
       </c>
       <c r="S36">
-        <v>0.004716676245314057</v>
+        <v>0.0025093113659595</v>
       </c>
       <c r="T36">
-        <v>0.004716676245314057</v>
+        <v>0.0025093113659595</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.590378</v>
+        <v>0.3768603333333333</v>
       </c>
       <c r="H37">
-        <v>1.771134</v>
+        <v>1.130581</v>
       </c>
       <c r="I37">
-        <v>0.009030144952381495</v>
+        <v>0.00588202122610842</v>
       </c>
       <c r="J37">
-        <v>0.009030144952381495</v>
+        <v>0.00588202122610842</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N37">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q37">
-        <v>87.36507533781266</v>
+        <v>85.59378025820233</v>
       </c>
       <c r="R37">
-        <v>786.2856780403139</v>
+        <v>770.3440223238209</v>
       </c>
       <c r="S37">
-        <v>0.001048357796851583</v>
+        <v>0.0007597187316890874</v>
       </c>
       <c r="T37">
-        <v>0.001048357796851583</v>
+        <v>0.0007597187316890874</v>
       </c>
     </row>
   </sheetData>
